--- a/test45-jpeg-block-smoothing/dssim.xlsx
+++ b/test45-jpeg-block-smoothing/dssim.xlsx
@@ -1293,8 +1293,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1432,7 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1493,6 +1495,7 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1553,6 +1556,7 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1886,7 +1890,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:E122"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123:B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4339,12 +4343,12 @@
         <v>1</v>
       </c>
       <c r="B123" s="5">
-        <f>AVERAGE(D3:D122)</f>
+        <f>AVERAGE(B3:B122)</f>
         <v>6.9269000000000023E-3</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="5">
-        <f>AVERAGE(B3:B122)</f>
+        <f>AVERAGE(D3:D122)</f>
         <v>6.9269000000000023E-3</v>
       </c>
       <c r="E123" s="13"/>
@@ -4359,12 +4363,12 @@
         <v>2</v>
       </c>
       <c r="B124" s="3">
-        <f>MEDIAN(D3:D122)</f>
+        <f>MEDIAN(B3:B122)</f>
         <v>5.9144999999999996E-3</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="3">
-        <f>MEDIAN(B3:B122)</f>
+        <f>MEDIAN(D3:D122)</f>
         <v>5.9144999999999996E-3</v>
       </c>
       <c r="E124" s="10"/>
@@ -4379,12 +4383,12 @@
         <v>4</v>
       </c>
       <c r="B125" s="5">
-        <f>AVERAGE(D3:D7,D12:D17,D21,D23:D26,D31,D34,D39:D47,D52:D57,D61,D63:D66,D71,D74,D79:D87,D92:D97,D101,D103:D106,D111,D114,D119:D122)</f>
+        <f>AVERAGE(B3:B7,B12:B17,B21,B23:B26,B31,B34,B39:B47,B52:B57,B61,B63:B66,B71,B74,B79:B87,B92:B97,B101,B103:B106,B111,B114,B119:B122)</f>
         <v>7.4856363636363636E-3</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="5">
-        <f>AVERAGE(B3:B7,B12:B17,B21,B23:B26,B31,B34,B39:B47,B52:B57,B61,B63:B66,B71,B74,B79:B87,B92:B97,B101,B103:B106,B111,B114,B119:B122)</f>
+        <f>AVERAGE(D3:D7,D12:D17,D21,D23:D26,D31,D34,D39:D47,D52:D57,D61,D63:D66,D71,D74,D79:D87,D92:D97,D101,D103:D106,D111,D114,D119:D122)</f>
         <v>7.4856363636363636E-3</v>
       </c>
       <c r="E125" s="13"/>
@@ -4399,12 +4403,12 @@
         <v>5</v>
       </c>
       <c r="B126" s="3">
-        <f>MEDIAN(D3:D7,D12:D17,D21,D23:D26,D31,D34,D39:D47,D52:D57,D61,D63:D66,D71,D74,D79:D87,D92:D97,D101,D103:D106,D111,D114,D119:D122)</f>
+        <f>MEDIAN(B3:B7,B12:B17,B21,B23:B26,B31,B34,B39:B47,B52:B57,B61,B63:B66,B71,B74,B79:B87,B92:B97,B101,B103:B106,B111,B114,B119:B122)</f>
         <v>7.0470000000000003E-3</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="3">
-        <f>MEDIAN(B3:B7,B12:B17,B21,B23:B26,B31,B34,B39:B47,B52:B57,B61,B63:B66,B71,B74,B79:B87,B92:B97,B101,B103:B106,B111,B114,B119:B122)</f>
+        <f>MEDIAN(D3:D7,D12:D17,D21,D23:D26,D31,D34,D39:D47,D52:D57,D61,D63:D66,D71,D74,D79:D87,D92:D97,D101,D103:D106,D111,D114,D119:D122)</f>
         <v>7.0470000000000003E-3</v>
       </c>
       <c r="E126" s="10"/>
@@ -4419,12 +4423,12 @@
         <v>6</v>
       </c>
       <c r="B127" s="5">
-        <f>AVERAGE(D8:D11,D18:D20,D22,D27:D30,D32:D33,D35:D38,D48:D51,D58:D60,D62,D67:D70,D72:D73,D75:D78,D88:D91,D98:D100,D102,D107:D110,D112:D113,D115:D118)</f>
+        <f>AVERAGE(B8:B11,B18:B20,B22,B27:B30,B32:B33,B35:B38,B48:B51,B58:B60,B62,B67:B70,B72:B73,B75:B78,B88:B91,B98:B100,B102,B107:B110,B112:B113,B115:B118)</f>
         <v>6.2440000000000013E-3</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="5">
-        <f>AVERAGE(B8:B11,B18:B20,B22,B27:B30,B32:B33,B35:B38,B48:B51,B58:B60,B62,B67:B70,B72:B73,B75:B78,B88:B91,B98:B100,B102,B107:B110,B112:B113,B115:B118)</f>
+        <f>AVERAGE(D8:D11,D18:D20,D22,D27:D30,D32:D33,D35:D38,D48:D51,D58:D60,D62,D67:D70,D72:D73,D75:D78,D88:D91,D98:D100,D102,D107:D110,D112:D113,D115:D118)</f>
         <v>6.2440000000000013E-3</v>
       </c>
       <c r="E127" s="13"/>
@@ -4439,12 +4443,12 @@
         <v>7</v>
       </c>
       <c r="B128" s="3">
-        <f>MEDIAN(D8:D11,D18:D20,D22,D27:D30,D32:D33,D35:D38,D48:D51,D58:D60,D62,D67:D70,D72:D73,D75:D78,D88:D91,D98:D100,D102,D107:D110,D112:D113,D115:D118)</f>
+        <f>MEDIAN(B8:B11,B18:B20,B22,B27:B30,B32:B33,B35:B38,B48:B51,B58:B60,B62,B67:B70,B72:B73,B75:B78,B88:B91,B98:B100,B102,B107:B110,B112:B113,B115:B118)</f>
         <v>2.8525E-3</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="3">
-        <f>MEDIAN(B8:B11,B18:B20,B22,B27:B30,B32:B33,B35:B38,B48:B51,B58:B60,B62,B67:B70,B72:B73,B75:B78,B88:B91,B98:B100,B102,B107:B110,B112:B113,B115:B118)</f>
+        <f>MEDIAN(D8:D11,D18:D20,D22,D27:D30,D32:D33,D35:D38,D48:D51,D58:D60,D62,D67:D70,D72:D73,D75:D78,D88:D91,D98:D100,D102,D107:D110,D112:D113,D115:D118)</f>
         <v>2.8525E-3</v>
       </c>
       <c r="E128" s="10"/>
@@ -4459,12 +4463,12 @@
         <v>8</v>
       </c>
       <c r="B129" s="5">
-        <f>AVERAGE(D43:D82)</f>
+        <f>AVERAGE(B43:B82)</f>
         <v>6.1823000000000017E-3</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="5">
-        <f>AVERAGE(B43:B82)</f>
+        <f>AVERAGE(D43:D82)</f>
         <v>6.1823000000000017E-3</v>
       </c>
       <c r="E129" s="13"/>
@@ -4479,12 +4483,12 @@
         <v>9</v>
       </c>
       <c r="B130" s="3">
-        <f>MEDIAN(D43:D82)</f>
+        <f>MEDIAN(B43:B82)</f>
         <v>5.3744999999999999E-3</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="3">
-        <f>MEDIAN(B43:B82)</f>
+        <f>MEDIAN(D43:D82)</f>
         <v>5.3744999999999999E-3</v>
       </c>
       <c r="E130" s="10"/>
@@ -4499,12 +4503,12 @@
         <v>10</v>
       </c>
       <c r="B131" s="5">
-        <f>AVERAGE(D83:D122)</f>
+        <f>AVERAGE(B83:B122)</f>
         <v>7.3906750000000011E-3</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="5">
-        <f>AVERAGE(B83:B122)</f>
+        <f>AVERAGE(D83:D122)</f>
         <v>7.3906750000000011E-3</v>
       </c>
       <c r="E131" s="13"/>
@@ -4519,12 +4523,12 @@
         <v>11</v>
       </c>
       <c r="B132" s="3">
-        <f>MEDIAN(D83:D122)</f>
+        <f>MEDIAN(B83:B122)</f>
         <v>5.7944999999999993E-3</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="3">
-        <f>MEDIAN(B83:B122)</f>
+        <f>MEDIAN(D83:D122)</f>
         <v>5.7944999999999993E-3</v>
       </c>
       <c r="E132" s="10"/>
@@ -4539,12 +4543,12 @@
         <v>12</v>
       </c>
       <c r="B133" s="5">
-        <f>AVERAGE(D3:D42)</f>
+        <f>AVERAGE(B3:B42)</f>
         <v>7.2077250000000008E-3</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="5">
-        <f>AVERAGE(B3:B42)</f>
+        <f>AVERAGE(D3:D42)</f>
         <v>7.2077250000000008E-3</v>
       </c>
       <c r="E133" s="13"/>
@@ -4559,12 +4563,12 @@
         <v>13</v>
       </c>
       <c r="B134" s="3">
-        <f>MEDIAN(D3:D42)</f>
+        <f>MEDIAN(B3:B42)</f>
         <v>6.4670000000000005E-3</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="3">
-        <f>MEDIAN(B3:B42)</f>
+        <f>MEDIAN(D3:D42)</f>
         <v>6.4670000000000005E-3</v>
       </c>
       <c r="E134" s="10"/>
